--- a/public/preprocessing/@Dr_Moeldoko.xlsx
+++ b/public/preprocessing/@Dr_Moeldoko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22266</v>
+        <v>30643</v>
       </c>
       <c r="C2" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,17 +497,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['banggalah', 'menjadi', 'prajurit', 'yang', 'sehati', 'prajurit', 'yang', 'selalu', 'berjalan', 'di, atas', 'sapta', 'marga', 'dan', 'sumpah', 'prajurit', 'sel']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>['banggalah', 'prajurit', 'sehati', 'prajurit', 'berjalan', 'diatas', 'sapta', 'marga', 'sumpah', 'prajurit', 'sel']</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['bangga', 'prajurit', 'sehat', 'prajurit', 'jalan', 'atas', 'sapta', 'marga', 'sumpah', 'prajurit', 'sel']</t>
+          <t>['banggalah', 'prajurit', 'sehati', 'prajurit', 'berjalan', 'di, atas', 'sapta', 'marga', 'sumpah', 'prajurit', 'sel']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['bangga', 'prajurit', 'sehat', 'prajurit', 'jalan', 'di atas', 'sapta', 'marga', 'sumpah', 'prajurit', 'sel']</t>
         </is>
       </c>
     </row>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22267</v>
+        <v>30644</v>
       </c>
       <c r="C3" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,15 +538,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['harapan', 'papitu', 'kakak', 'wawa', 'bisa', 'tumbuh', 'dalam', 'lingkungan', 'yang', 'mendukung', 'citacitanya', 'melihat', 'kakak', 'wawa', 'tumbuh', 'dan']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['harapan', 'papitu', 'kakak', 'wawa', 'tumbuh', 'lingkungan', 'mendukung', 'citacitanya', 'kakak', 'wawa', 'tumbuh']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['harap', 'papitu', 'kakak', 'wawa', 'tumbuh', 'lingkung', 'dukung', 'citacitanya', 'kakak', 'wawa', 'tumbuh']</t>
         </is>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22268</v>
+        <v>30645</v>
       </c>
       <c r="C4" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,15 +579,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['hadir', 'di', 'ulang', 'tahun', 'cucu', 'menjadi', 'kesempatan', 'berkumpul', 'dengan', 'semua', 'anggota', 'keluarga', 'rasa', 'bahagia', 'muncul', 'saat']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>['hadir', 'ulang', 'cucu', 'kesempatan', 'berkumpul', 'anggota', 'keluarga', 'bahagia', 'muncul']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['hadir', 'ulang', 'cucu', 'sempat', 'kumpul', 'anggota', 'keluarga', 'bahagia', 'muncul']</t>
         </is>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22269</v>
+        <v>30646</v>
       </c>
       <c r="C5" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,17 +620,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['kamu', 'terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['sia', 'terima', 'kasih']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['sia', 'terima', 'kasih']</t>
+          <t>['terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih']</t>
         </is>
       </c>
     </row>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22270</v>
+        <v>30647</v>
       </c>
       <c r="C6" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,15 +661,20 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['amin', 'terima', 'kasih', 'banyak', 'mas']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>['amin', 'terima', 'kasih', 'mas']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>['amin', 'terima', 'kasih', 'mas']</t>
         </is>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22271</v>
+        <v>30648</v>
       </c>
       <c r="C7" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['amin', 'terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['amin', 'terima', 'kasih']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['amin', 'terima', 'kasih']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22272</v>
+        <v>30649</v>
       </c>
       <c r="C8" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,17 +743,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['amin', 'ya, rabbal, alamin']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['amin', 'yra']</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['amin', 'yra']</t>
+          <t>['amin', 'ya, rabbal, alamin']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['amin', 'ya rabbal alamin']</t>
         </is>
       </c>
     </row>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22273</v>
+        <v>30650</v>
       </c>
       <c r="C9" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,15 +784,20 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['amin', 'terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>['amin', 'terima', 'kasih']</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>['amin', 'terima', 'kasih']</t>
         </is>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22274</v>
+        <v>30651</v>
       </c>
       <c r="C10" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,15 +825,20 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['pengertianmu', 'dan', 'kesabaranmu', 'selama', 'bertahuntahun', 'adalah', 'hadiah', 'terindah', 'semoga', 'allah', 'memberi', 'kita', 'jalan', 'untuk']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>['pengertianmu', 'kesabaranmu', 'bertahuntahun', 'hadiah', 'terindah', 'semoga', 'allah', 'jalan']</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>['erti', 'sabar', 'bertahuntahun', 'hadiah', 'indah', 'moga', 'allah', 'jalan']</t>
         </is>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22275</v>
+        <v>30652</v>
       </c>
       <c r="C11" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,15 +866,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['bouquets', 'ini', 'untuk', 'mengingatkan', 'janji', 'pernikahan', 'kita', 'selamat', 'hari', 'ulang', 'tahun', 'pernikahan', 'pendampingku', 'amp', 'sahaba']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>['bouquets', 'janji', 'pernikahan', 'selamat', 'ulang', 'pernikahan', 'pendampingku', 'sahaba']</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>['bouquets', 'janji', 'nikah', 'selamat', 'ulang', 'nikah', 'damping', 'sahaba']</t>
         </is>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>22276</v>
+        <v>30653</v>
       </c>
       <c r="C12" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,15 +907,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['sejak', 'kecil', 'saya', 'hidup', 'di', 'lingkungan', 'petani', 'dan', 'saya', 'tidak', 'akan', 'melupakannya', 'hingga', 'kini', 'saya', 'masih', 'menggeluti']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['hidup', 'lingkungan', 'petani', 'melupakannya', 'menggeluti']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['hidup', 'lingkung', 'tani', 'lupa', 'gelut']</t>
         </is>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22277</v>
+        <v>30654</v>
       </c>
       <c r="C13" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,17 +948,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['rt', 'live', 'power', 'breakfast', 'bersama', 'jenderal', 'purna', 'moeldoko', 'kepala', 'staf', 'presiden']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['live', 'power', 'breakfast', 'jendral', 'purn', 'moeldoko', 'kepala', 'staf', 'presiden']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['live', 'power', 'breakfast', 'jendral', 'purn', 'moeldoko', 'kepala', 'staf', 'presiden']</t>
+          <t>['live', 'power', 'breakfast', 'jenderal', 'purna', 'moeldoko', 'kepala', 'staf', 'presiden']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['live', 'power', 'breakfast', 'jenderal', 'purna', 'moeldoko', 'kepala', 'staf', 'presiden']</t>
         </is>
       </c>
     </row>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22278</v>
+        <v>30655</v>
       </c>
       <c r="C14" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,15 +989,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['rt', 'hari', 'ini', 'moeldoko', 'yang', 'didampingi', 'deputi', 'ksp', 'menjenguk', 'ulama', 'syekh', 'ali', 'jaber', 'untuk', 'menyampaikan', 'rasa', 'simpa']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>['moeldoko', 'didampingi', 'deputi', 'ksp', 'menjenguk', 'ulama', 'syekh', 'ali', 'jaber', 'simpa']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['moeldoko', 'damping', 'deputi', 'ksp', 'jenguk', 'ulama', 'syekh', 'ali', 'jaber', 'simpa']</t>
         </is>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>22279</v>
+        <v>30656</v>
       </c>
       <c r="C15" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,15 +1030,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'tahun', 'kemudian', 'tepatnya', 'tahun', 'citacita', 'itu', 'terwujud', 'tentu', 'saja', 'melalui', 'kerja', 'keras', 'terus']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'tepatnya', 'citacita', 'terwujud', 'kerja', 'keras']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['alhamdulillah', 'tepat', 'citacita', 'wujud', 'kerja', 'keras']</t>
         </is>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>22280</v>
+        <v>30657</v>
       </c>
       <c r="C16" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,17 +1071,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['seorang', 'kawan', 'mengirimkan', 'foto', 'lama', 'saat', 'saya', 'wisuda', 'akmil', 'tahun', 'sebagai', 'remaja', 'yang', 'lahir', 'dan', 'besar', 'dari', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['kawan', 'mengirimkan', 'foto', 'wisuda', 'akmil', 'remaja', 'lahir', 'kel']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['kawan', 'kirim', 'foto', 'wisuda', 'akmil', 'remaja', 'lahir', 'kel']</t>
+          <t>['kawan', 'mengirimkan', 'foto', 'wisuda', 'akmil', 'remaja', 'lahir', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['kawan', 'kirim', 'foto', 'wisuda', 'akmil', 'remaja', 'lahir', 'keluarga']</t>
         </is>
       </c>
     </row>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>22281</v>
+        <v>30658</v>
       </c>
       <c r="C17" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,15 +1112,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['rt', 'kepala', 'staf', 'kepresidenan', 'bersama', 'keluarga', 'besar', 'kantor', 'staf', 'presiden', 'mengucapkan', 'bela', 'sungkawa', 'yang', 'sebesarbesarnya', 'kepada', 'ke']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>['kepala', 'staf', 'kepresidenan', 'keluarga', 'kantor', 'staf', 'presiden', 'bela', 'sungkawa', 'sebesarbesarnya']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>['kepala', 'staf', 'presiden', 'keluarga', 'kantor', 'staf', 'presiden', 'bela', 'sungkawa', 'sebesarbesarnya']</t>
         </is>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>22282</v>
+        <v>30659</v>
       </c>
       <c r="C18" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,15 +1153,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['beberapa', 'hari', 'kemarin', 'saya', 'ke', 'jawa', 'timur', 'ditemani', 'cak', 'kartolo', 'untuk', 'mengajak', 'masyarakat', 'selalu', 'menerapkan', 'protokol']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['kemarin', 'jawa', 'timur', 'ditemani', 'cak', 'kartolo', 'mengajak', 'masyarakat', 'menerapkan', 'protokol']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['kemarin', 'jawa', 'timur', 'tani', 'cak', 'kartolo', 'ajak', 'masyarakat', 'terap', 'protokol']</t>
         </is>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>22283</v>
+        <v>30660</v>
       </c>
       <c r="C19" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,15 +1194,20 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['saya', 'yakin', 'bersama', 'seniman', 'dan', 'ikon', 'lokal', 'gerakan', 'ini', 'akan', 'lebih', 'efektif', 'sampai', 'ke', 'masyarakat']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>['seniman', 'ikon', 'lokal', 'gerakan', 'efektif', 'masyarakat']</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>['seniman', 'ikon', 'lokal', 'gera', 'efektif', 'masyarakat']</t>
         </is>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>22284</v>
+        <v>30661</v>
       </c>
       <c r="C20" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,17 +1235,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['maskeran', 'rek', 'angel', 'teman', 'tuturanmu', 'petikan', 'pesan', 'moral', 'yangdiperkenalkan', 'kelompok', 'ludruk', 'kartolo', 'rekan', 'amp', 'saya']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['maskeran', 'rek', 'angel', 'temen', 'tuturanmu', 'petikan', 'pesan', 'moral', 'yangdiperkenalkan', 'kelompok', 'ludruk', 'kartolo', 'cs']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['masker', 'rek', 'angel', 'temen', 'tutur', 'peti', 'pesan', 'moral', 'yangdiperkenalkan', 'kelompok', 'ludruk', 'kartolo', 'cs']</t>
+          <t>['maskeran', 'rek', 'angel', 'teman', 'tuturanmu', 'petikan', 'pesan', 'moral', 'yangdiperkenalkan', 'kelompok', 'ludruk', 'kartolo', 'rekan']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['masker', 'rek', 'angel', 'teman', 'tutur', 'peti', 'pesan', 'moral', 'yangdiperkenalkan', 'kelompok', 'ludruk', 'kartolo', 'rekan']</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>22285</v>
+        <v>30662</v>
       </c>
       <c r="C21" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,15 +1276,20 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['dirgahayu', 'republik', 'indonesia', 'ke', 'mari', 'kita', 'hilangkan', 'rasa', 'takut', 'dari', 'penjajahan', 'covid', 'terpenting', 'tetap', 'wasp']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>['dirgahayu', 'republik', 'indonesia', 'mari', 'hilangkan', 'takut', 'penjajahan', 'covid', 'terpenting', 'wasp']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>['dirgahayu', 'republik', 'indonesia', 'mari', 'hilang', 'takut', 'jajah', 'covid', 'penting', 'wasp']</t>
         </is>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>22286</v>
+        <v>30663</v>
       </c>
       <c r="C22" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,15 +1317,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'pramuka', 'ke', 'satyaku', 'kudharmakan', 'dharmaku', 'kubaktikan', 'mari', 'kita', 'terus', 'jaga', 'kedisiplinan', 'ketangk']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['selamat', 'pramuka', 'satyaku', 'kudharmakan', 'dharmaku', 'kubaktikan', 'mari', 'jaga', 'kedisiplinan', 'ketangk']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['selamat', 'pramuka', 'satyaku', 'kudharmakan', 'dharmaku', 'bakti', 'mari', 'jaga', 'disiplin', 'ketangk']</t>
         </is>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>22287</v>
+        <v>30664</v>
       </c>
       <c r="C23" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,15 +1358,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['pagi', 'ini', 'saya', 'ditemani', 'oleh', 'bupati', 'karimun', 'beserta', 'jajarannya', 'untuk', 'mengunjungi', 'gold', 'coast', 'karimun', 'dalam']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['pagi', 'ditemani', 'bupati', 'karimun', 'beserta', 'jajarannya', 'mengunjungi', 'gold', 'coast', 'karimun']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['pagi', 'tani', 'bupati', 'karimun', 'serta', 'jajar', 'unjung', 'gold', 'coast', 'karimun']</t>
         </is>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22288</v>
+        <v>30665</v>
       </c>
       <c r="C24" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,15 +1399,20 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['kekuatan', 'lakilaki', 'ada', 'di', 'wanita', 'kekuatan', 'suami', 'ada', 'pada', 'istri', 'saya', 'bisa', 'sampai', 'pada', 'titik', 'ini', 'karena', 'kekuatan']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>['kekuatan', 'lakilaki', 'wanita', 'kekuatan', 'suami', 'istri', 'titik', 'kekuatan']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>['kuat', 'lakilaki', 'wanita', 'kuat', 'suami', 'istri', 'titik', 'kuat']</t>
         </is>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>22289</v>
+        <v>30666</v>
       </c>
       <c r="C25" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,17 +1440,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['terima, kasih', 'rekan', 'dan', 'sahabat', 'sekalian', 'atas', 'doa', 'dan', 'ucapannya', 'pada', 'hari', 'ulang', 'tahun', 'saya', 'ini', 'semoga', 'kita', 'semua', 'se']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['terimakasih', 'rekan', 'sahabat', 'doa', 'ucapannya', 'ulang', 'semoga']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['terimakasih', 'rekan', 'sahabat', 'doa', 'ucap', 'ulang', 'moga']</t>
+          <t>['terima, kasih', 'rekan', 'sahabat', 'doa', 'ucapannya', 'ulang', 'semoga']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['terima kasih', 'rekan', 'sahabat', 'doa', 'ucap', 'ulang', 'moga']</t>
         </is>
       </c>
     </row>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>22290</v>
+        <v>30667</v>
       </c>
       <c r="C26" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,17 +1481,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['alhamdulillah', 'bisa', 'melaksanakan', 'salat', 'jumat', 'bersama', 'staf', 'bertempat', 'di', 'ruangan', 'kerja', 'saya', 'hingga', 'meluber']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['alhamdullilah', 'melaksanakan', 'salat', 'jumat', 'staf', 'bertempat', 'ruangan', 'kerja', 'meluber']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['alhamdullilah', 'laksana', 'salat', 'jumat', 'staf', 'tempat', 'ruang', 'kerja', 'luber']</t>
+          <t>['alhamdulillah', 'melaksanakan', 'salat', 'jumat', 'staf', 'bertempat', 'ruangan', 'kerja', 'meluber']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'laksana', 'salat', 'jumat', 'staf', 'tempat', 'ruang', 'kerja', 'luber']</t>
         </is>
       </c>
     </row>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>22291</v>
+        <v>30668</v>
       </c>
       <c r="C27" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,15 +1522,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['pagi', 'ini', 'saya', 'bersama', 'seluruh', 'jajaran', 'staf', 'khusus', 'deputi', 'dan', 'tenaga', 'profesional', 'menjaga', 'imunitas', 'dan', 'mela']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>['pagi', 'jajaran', 'staf', 'khusus', 'deputi', 'tenaga', 'profesional', 'menjaga', 'imunitas', 'mela']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['pagi', 'jajar', 'staf', 'khusus', 'deputi', 'tenaga', 'profesional', 'jaga', 'imunitas', 'mela']</t>
         </is>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>22292</v>
+        <v>30669</v>
       </c>
       <c r="C28" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,15 +1563,20 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['malam', 'ini', 'saya', 'akan', 'berbincang', 'dengan', 'dalam', 'acara', 'episode', 'di', 'balik', 'jengkelnya']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>['malam', 'berbincang', 'acara', 'episode', 'jengkelnya']</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>['malam', 'bincang', 'acara', 'episode', 'jengkel']</t>
         </is>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>22293</v>
+        <v>30670</v>
       </c>
       <c r="C29" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,15 +1604,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['saya', 'menghadiri', 'rapat', 'terbatas', 'yang', 'dipimpin', 'oleh', 'presiden', 'di', 'istana', 'negara', 'dengan', 'protokol', 'kesehatan', 'yang']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['menghadiri', 'rapat', 'terbatas', 'dipimpin', 'presiden', 'istana', 'negara', 'protokol', 'kesehatan']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['hadir', 'rapat', 'batas', 'pimpin', 'presiden', 'istana', 'negara', 'protokol', 'sehat']</t>
         </is>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>22294</v>
+        <v>30671</v>
       </c>
       <c r="C30" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,17 +1645,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['hari', 'ini', 'saya', 'melantik', 'deputi', 'jabatan', 'deputi', 'di', 'ksp', 'memiliki', 'tanggung, jawab', 'sangat', 'besar', 'dalam', 'membantu']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['melantik', 'deputi', 'jabatan', 'deputi', 'ksp', 'memiliki', 'tanggungjawab', 'membantu']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['lantik', 'deputi', 'jabat', 'deputi', 'ksp', 'milik', 'tanggungjawab', 'bantu']</t>
+          <t>['melantik', 'deputi', 'jabatan', 'deputi', 'ksp', 'memiliki', 'tanggung, jawab', 'membantu']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['lantik', 'deputi', 'jabat', 'deputi', 'ksp', 'milik', 'tanggung jawab', 'bantu']</t>
         </is>
       </c>
     </row>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>22295</v>
+        <v>30672</v>
       </c>
       <c r="C31" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,15 +1686,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['rt', 'lima', 'deputi', 'di', 'ksp', 'dilantik', 'setelah', 'mendapatkan', 'keputusan', 'presiden', 'ri', 'pelantikan', 'berlangsung', 'di', 'gedung', 'bina', 'graha']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>['deputi', 'ksp', 'dilantik', 'keputusan', 'presiden', 'ri', 'pelantikan', 'gedung', 'bina', 'graha']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>['deputi', 'ksp', 'lantik', 'putus', 'presiden', 'ri', 'lantik', 'gedung', 'bina', 'graha']</t>
         </is>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>22296</v>
+        <v>30673</v>
       </c>
       <c r="C32" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,17 +1727,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['sejak', 'awal', 'pandemi', 'covid', 'presiden', 'membatasi', 'kunjungan', 'keluar', 'ibu, kota', 'ini', 'salah', 'satu', 'kunjungan', 'kerja', 'bersama', 'pra']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['pandemi', 'covid', 'presiden', 'membatasi', 'kunjungan', 'ibukota', 'salah', 'kunjungan', 'kerja', 'pre']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['pandemi', 'covid', 'presiden', 'batas', 'kunjung', 'ibukota', 'salah', 'kunjung', 'kerja', 'pre']</t>
+          <t>['pandemi', 'covid', 'presiden', 'membatasi', 'kunjungan', 'ibu, kota', 'salah', 'kunjungan', 'kerja', 'pra']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['pandemi', 'covid', 'presiden', 'batas', 'kunjung', 'ibu kota', 'salah', 'kunjung', 'kerja', 'pra']</t>
         </is>
       </c>
     </row>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22297</v>
+        <v>30674</v>
       </c>
       <c r="C33" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,15 +1768,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['pagi', 'ini', 'saya', 'berbincang', 'di', 'tentang', 'pemulihan', 'kondisi', 'masyarakat', 'akibat', 'serangan', 'pandemi', 'covid', 'sa']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>['pagi', 'berbincang', 'pemulihan', 'kondisi', 'masyarakat', 'akibat', 'serangan', 'pandemi', 'covid', 'sa']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['pagi', 'bincang', 'pulih', 'kondisi', 'masyarakat', 'akibat', 'serang', 'pandemi', 'covid', 'sa']</t>
         </is>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>22298</v>
+        <v>30675</v>
       </c>
       <c r="C34" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,17 +1809,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['rt', 'saat', 'ini', 'sedang', 'berlangsung', 'bincang', 'khusus', 'bersama', 'moeldoko', 'jenderal', 'purna', 'kepala', 'staf', 'kepresidenan']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['bincang', 'khusus', 'moeldoko', 'jendral', 'purn', 'kepala', 'staf', 'kepresidenan']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['bincang', 'khusus', 'moeldoko', 'jendral', 'purn', 'kepala', 'staf', 'presiden']</t>
+          <t>['bincang', 'khusus', 'moeldoko', 'jenderal', 'purna', 'kepala', 'staf', 'kepresidenan']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['bincang', 'khusus', 'moeldoko', 'jenderal', 'purna', 'kepala', 'staf', 'presiden']</t>
         </is>
       </c>
     </row>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>22299</v>
+        <v>30676</v>
       </c>
       <c r="C35" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,15 +1850,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['hari', 'ini', 'presiden', 'menggelar', 'sidang', 'kabinet', 'secara', 'tatap', 'muka', 'untuk', 'pertama', 'kalinya', 'sejak', 'merebaknya', 'pandem']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>['presiden', 'menggelar', 'sidang', 'kabinet', 'tatap', 'muka', 'kalinya', 'merebaknya', 'pandem']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>['presiden', 'gelar', 'sidang', 'kabinet', 'tatap', 'muka', 'kali', 'rebak', 'pandem']</t>
         </is>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>22300</v>
+        <v>30677</v>
       </c>
       <c r="C36" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,15 +1891,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['jenderal', 'pramono', 'edhi', 'wibowo', 'bukan', 'sekadar', 'senior', 'bagi', 'saya', 'beliau', 'adalah', 'panutan', 'hari', 'ini', 'saya', 'kehilangan', 'seo']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>['jenderal', 'pramono', 'edhi', 'wibowo', 'senior', 'beliau', 'panutan', 'kehilangan', 'seo']</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>['jenderal', 'pramono', 'edhi', 'wibowo', 'senior', 'beliau', 'panutan', 'hilang', 'seo']</t>
         </is>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>22301</v>
+        <v>30678</v>
       </c>
       <c r="C37" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,15 +1932,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['selamat', 'ulang', 'tahun', 'mas', 'semoga', 'selalu', 'diberi', 'kesehatan', 'dan', 'kekuatan', 'dalam', 'menjalankan', 'tugas', 'negara']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>['selamat', 'ulang', 'mas', 'semoga', 'kesehatan', 'kekuatan', 'menjalankan', 'tugas', 'negara']</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>['selamat', 'ulang', 'mas', 'moga', 'sehat', 'kuat', 'jalan', 'tugas', 'negara']</t>
         </is>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>22302</v>
+        <v>30679</v>
       </c>
       <c r="C38" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,17 +1973,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['siang', 'ini', 'saya', 'makan', 'siang', 'bersama', 'kasal', 'laksamana', 'tentara, nasional, indonesia', 'yudo', 'margono', 'saya', 'memberi', 'ucapan', 'selamat', 'atas', 'tugas', 'baru', 'be']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['siang', 'makan', 'siang', 'kasal', 'laksamana', 'tni', 'yudo', 'margono', 'ucapan', 'selamat', 'tugas', 'be']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['siang', 'makan', 'siang', 'kasal', 'laksamana', 'tni', 'yudo', 'margono', 'ucap', 'selamat', 'tugas', 'be']</t>
+          <t>['siang', 'makan', 'siang', 'kasal', 'laksamana', 'tentara, nasional, indonesia', 'yudo', 'margono', 'ucapan', 'selamat', 'tugas', 'be']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['siang', 'makan', 'siang', 'kasal', 'laksamana', 'tentara nasional indonesia', 'yudo', 'margono', 'ucap', 'selamat', 'tugas', 'be']</t>
         </is>
       </c>
     </row>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>22303</v>
+        <v>30680</v>
       </c>
       <c r="C39" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,15 +2014,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['lingkungan', 'yang', 'bersih', 'dan', 'sehat', 'adalah', 'tanggung', 'jawab', 'kita', 'mari', 'kita', 'jaga', 'bersama', 'selamat', 'hari', 'lingkungan', 'hidup']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>['lingkungan', 'bersih', 'sehat', 'tanggung', 'mari', 'jaga', 'selamat', 'lingkungan', 'hidup']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['lingkung', 'bersih', 'sehat', 'tanggung', 'mari', 'jaga', 'selamat', 'lingkung', 'hidup']</t>
         </is>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>22304</v>
+        <v>30681</v>
       </c>
       <c r="C40" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,15 +2055,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'pahlawan', 'nasional', 'november', 'mari', 'kobarkan', 'semangat', 'nasionalisme', 'untuk', 'mengenang', 'jasa', 'para', 'pah']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['selamat', 'pahlawan', 'nasional', 'november', 'mari', 'kobarkan', 'semangat', 'nasionalisme', 'mengenang', 'jasa', 'pah']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['selamat', 'pahlawan', 'nasional', 'november', 'mari', 'kobar', 'semangat', 'nasionalisme', 'kenang', 'jasa', 'pah']</t>
         </is>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>22305</v>
+        <v>30682</v>
       </c>
       <c r="C41" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1896,17 +2096,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['tak', 'akan', 'ada', 'bangsa', 'indonesia', 'tanpa', 'perjuangan', 'para', 'pahlawan', 'terima, kasih', 'atas', 'segala', 'cucuran', 'darah', 'keringat', 'dan']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['bangsa', 'indonesia', 'perjuangan', 'pahlawan', 'terimakasih', 'cucuran', 'darah', 'keringat']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['bangsa', 'indonesia', 'juang', 'pahlawan', 'terimakasih', 'cucur', 'darah', 'keringat']</t>
+          <t>['bangsa', 'indonesia', 'perjuangan', 'pahlawan', 'terima, kasih', 'cucuran', 'darah', 'keringat']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['bangsa', 'indonesia', 'juang', 'pahlawan', 'terima kasih', 'cucur', 'darah', 'keringat']</t>
         </is>
       </c>
     </row>
@@ -1915,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>22306</v>
+        <v>30683</v>
       </c>
       <c r="C42" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1932,17 +2137,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['semoga', 'kita', 'senantiasa', 'istikamah', 'dalam', 'bersedakah', 'amin', 'ya', 'rabi', 'alaamiin']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['semoga', 'senantiasa', 'istiqomah', 'bersedakah', 'aamiin', 'rabbal', 'alaamiin']</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['moga', 'senantiasa', 'istiqomah', 'dakah', 'aamiin', 'rabbal', 'alaamiin']</t>
+          <t>['semoga', 'senantiasa', 'istikamah', 'bersedakah', 'amin', 'rabi', 'alaamiin']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['moga', 'senantiasa', 'istikamah', 'dakah', 'amin', 'rabi', 'alaamiin']</t>
         </is>
       </c>
     </row>
@@ -1951,10 +2161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22307</v>
+        <v>30684</v>
       </c>
       <c r="C43" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1968,15 +2178,20 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['maka', 'sedekah', 'yang', 'kita', 'lakukan', 'di', 'hari', 'jumat', 'akan', 'mendapat', 'jaminan', 'pahala', 'yang', 'dilipatgandakan', 'jangan', 'takut', 'untuk']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>['sedekah', 'lakukan', 'jumat', 'jaminan', 'pahala', 'dilipatgandakan', 'takut']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>['sedekah', 'laku', 'jumat', 'jamin', 'pahala', 'dilipatgandakan', 'takut']</t>
         </is>
@@ -1987,10 +2202,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>22308</v>
+        <v>30685</v>
       </c>
       <c r="C44" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2004,17 +2219,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sedekah', 'hari', 'apa', 'pun', 'sangat', 'utama', 'namun', 'khusus', 'hari', 'jumat', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sedekah', 'utama', 'khusus', 'jumat', 'allah', 'swt']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sedekah', 'utama', 'khusus', 'jumat', 'allah', 'swt']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sedekah', 'utama', 'khusus', 'jumat', 'allah', 'subhanahu, wa, taala']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sedekah', 'utama', 'khusus', 'jumat', 'allah', 'subhanahu wa taala']</t>
         </is>
       </c>
     </row>
@@ -2023,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>22309</v>
+        <v>30686</v>
       </c>
       <c r="C45" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2040,17 +2260,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['semoga', 'kita', 'dimudahkan', 'oleh', 'allah', 'untuk', 'mengamalkannya', 'amin', 'ya', 'rabi', 'alaamiin']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['semoga', 'dimudahkan', 'allah', 'mengamalkannya', 'aamiin', 'rabbal', 'alaamiin']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['moga', 'mudah', 'allah', 'amal', 'aamiin', 'rabbal', 'alaamiin']</t>
+          <t>['semoga', 'dimudahkan', 'allah', 'mengamalkannya', 'amin', 'rabi', 'alaamiin']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['moga', 'mudah', 'allah', 'amal', 'amin', 'rabi', 'alaamiin']</t>
         </is>
       </c>
     </row>
@@ -2059,10 +2284,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>22310</v>
+        <v>30687</v>
       </c>
       <c r="C46" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2076,17 +2301,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'janganlah', 'kita', 'sampai', 'melalaikan', 'selawat', 'karena', 'barang, siapa', 'yang', 'ber']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'melalaikan', 'shalawat', 'barangsiapa', 'ber']</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'lalai', 'shalawat', 'barangsiapa', 'ber']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'melalaikan', 'selawat', 'barang, siapa', 'ber']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'lalai', 'selawat', 'barang siapa', 'ber']</t>
         </is>
       </c>
     </row>
@@ -2095,10 +2325,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>22311</v>
+        <v>30688</v>
       </c>
       <c r="C47" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2112,17 +2342,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'sekadar', 'info', 'yang', 'di', 'screencap', 'bukan', 'akun', 'facebook', 'saya', 'monggo', 'check', 'dan', 'recheck', 'dulu', 'sebelum']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'sekedar', 'info', 'screencap', 'akun', 'facebook', 'monggo', 'check', 'recheck']</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'dar', 'info', 'screencap', 'akun', 'facebook', 'monggo', 'check', 'recheck']</t>
+          <t>['assalamualaikum', 'info', 'screencap', 'akun', 'facebook', 'monggo', 'check', 'recheck']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'info', 'screencap', 'akun', 'facebook', 'monggo', 'check', 'recheck']</t>
         </is>
       </c>
     </row>
@@ -2131,10 +2366,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>22312</v>
+        <v>30689</v>
       </c>
       <c r="C48" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2148,15 +2383,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['oleh', 'karena', 'itu', 'kita', 'harus', 'bagga', 'menjadi', 'bagian', 'dari', 'pemuda', 'pemudi', 'indonesia', 'mari', 'bersatu', 'demi', 'tanah', 'air', 'dan', 'kema']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>['bagga', 'pemuda', 'pemudi', 'indonesia', 'mari', 'bersatu', 'tanah', 'air', 'kema']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['bagga', 'pemuda', 'pemudi', 'indonesia', 'mari', 'satu', 'tanah', 'air', 'kema']</t>
         </is>
@@ -2167,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>22313</v>
+        <v>30690</v>
       </c>
       <c r="C49" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2184,15 +2424,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['sumpah', 'pemuda', 'adalah', 'salah', 'satu', 'dari', 'banyak', 'hal', 'yang', 'menjadi', 'tonggak', 'kemerdekaan', 'indonesia', 'ikrar', 'sumpah', 'pemuda', 'sen']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>['sumpah', 'pemuda', 'salah', 'tonggak', 'kemerdekaan', 'indonesia', 'ikrar', 'sumpah', 'pemuda', 'sen']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>['sumpah', 'pemuda', 'salah', 'tonggak', 'merdeka', 'indonesia', 'ikrar', 'sumpah', 'pemuda', 'sen']</t>
         </is>
@@ -2203,10 +2448,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>22314</v>
+        <v>30691</v>
       </c>
       <c r="C50" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2220,15 +2465,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['kami', 'putra', 'dan', 'putri', 'indonesia', 'mengaku', 'bertumpah', 'darah', 'yang', 'satu', 'tanah', 'air', 'indonesia', 'kami', 'putra', 'dan', 'putri', 'indon']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>['putra', 'putri', 'indonesia', 'mengaku', 'bertumpah', 'darah', 'tanah', 'air', 'indonesia', 'putra', 'putri', 'indon']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>['putra', 'putri', 'indonesia', 'aku', 'tumpah', 'darah', 'tanah', 'air', 'indonesia', 'putra', 'putri', 'indon']</t>
         </is>
@@ -2239,10 +2489,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>22315</v>
+        <v>30692</v>
       </c>
       <c r="C51" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2256,17 +2506,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['semoga', 'kita', 'selalu', 'bisa', 'menjaga', 'amanah', 'yang', 'kita', 'dapat', 'dari', 'allah', 'subhanahu, wa, taala', 'dan', 'semoga', 'selalu', 'bermanfaat', 'untuk', 'yang', 'lain']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['semoga', 'menjaga', 'amanah', 'allah', 'swt', 'semoga', 'bermanfaat', 'lainn']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['moga', 'jaga', 'amanah', 'allah', 'swt', 'moga', 'manfaat', 'lainn']</t>
+          <t>['semoga', 'menjaga', 'amanah', 'allah', 'subhanahu, wa, taala', 'semoga', 'bermanfaat']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['moga', 'jaga', 'amanah', 'allah', 'subhanahu wa taala', 'moga', 'manfaat']</t>
         </is>
       </c>
     </row>
@@ -2275,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>22316</v>
+        <v>30693</v>
       </c>
       <c r="C52" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2292,17 +2547,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'amanah', 'kepada', 'allah', 'subhanahu, wa, taala', 'artinya', 'kita', 'harus', 'taat', 'akan', 'segala', 'perintah', 'dan']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'amanah', 'kpd', 'allah', 'swt', 'taat', 'perintah']</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'amanah', 'kpd', 'allah', 'swt', 'taat', 'perintah']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'amanah', 'allah', 'subhanahu, wa, taala', 'taat', 'perintah']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'amanah', 'allah', 'subhanahu wa taala', 'taat', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -2311,10 +2571,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>22317</v>
+        <v>30694</v>
       </c>
       <c r="C53" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2328,17 +2588,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['rt', 'moeldoko', 'moeldoko', 'sebagai', 'kepala', 'ksp', 'mantan', 'panglima', 'tentara, nasional, indonesia', 'bertugas', 'kawal', 'program', 'prioritas', 'nasional', 'sesuai', 'visi', 'presi']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['moeldoko', 'moeldoko', 'kepala', 'ksp', 'mantan', 'panglima', 'tni', 'bertugas', 'kawal', 'program', 'prioritas', 'nasional', 'sesuai', 'visi', 'presi']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['moeldoko', 'moeldoko', 'kepala', 'ksp', 'mantan', 'panglima', 'tni', 'tugas', 'kawal', 'program', 'prioritas', 'nasional', 'sesuai', 'visi', 'pres']</t>
+          <t>['moeldoko', 'moeldoko', 'kepala', 'ksp', 'mantan', 'panglima', 'tentara, nasional, indonesia', 'bertugas', 'kawal', 'program', 'prioritas', 'nasional', 'sesuai', 'visi', 'presi']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['moeldoko', 'moeldoko', 'kepala', 'ksp', 'mantan', 'panglima', 'tentara nasional indonesia', 'tugas', 'kawal', 'program', 'prioritas', 'nasional', 'sesuai', 'visi', 'pres']</t>
         </is>
       </c>
     </row>
@@ -2347,10 +2612,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>22318</v>
+        <v>30695</v>
       </c>
       <c r="C54" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2364,15 +2629,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['matur', 'suwun']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>['matur', 'suwun']</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>['matur', 'suwun']</t>
         </is>
@@ -2383,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>22319</v>
+        <v>30696</v>
       </c>
       <c r="C55" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2400,15 +2670,20 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['rt', 'kabinet', 'ini', 'kami', 'namakan']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>['kabinet', 'namakan']</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>['kabinet', 'nama']</t>
         </is>
@@ -2419,10 +2694,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>22320</v>
+        <v>30697</v>
       </c>
       <c r="C56" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2436,17 +2711,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['karena', 'allah', 'subhanahu, wa, taala', 'maka', 'akan', 'mengandung', 'nilai', 'pahala', 'yang', 'besar', 'semoga', 'kita', 'senantiasa', 'mampu', 'menebar', 'kebaikan']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['allah', 'swt', 'mengandung', 'nilai', 'pahala', 'semoga', 'senantiasa', 'menebar', 'kebaikan']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['allah', 'swt', 'kandung', 'nilai', 'pahala', 'moga', 'senantiasa', 'tebar', 'baik']</t>
+          <t>['allah', 'subhanahu, wa, taala', 'mengandung', 'nilai', 'pahala', 'semoga', 'senantiasa', 'menebar', 'kebaikan']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['allah', 'subhanahu wa taala', 'kandung', 'nilai', 'pahala', 'moga', 'senantiasa', 'tebar', 'baik']</t>
         </is>
       </c>
     </row>
@@ -2455,10 +2735,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>22321</v>
+        <v>30698</v>
       </c>
       <c r="C57" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2472,15 +2752,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sedekah', 'tidak', 'selalu', 'identik', 'dengan', 'memberikan', 'harta', 'tetapi', 'perbuatan']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sedekah', 'identik', 'harta', 'perbuatan']</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sedekah', 'identik', 'harta', 'buat']</t>
         </is>
@@ -2491,10 +2776,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>22322</v>
+        <v>30699</v>
       </c>
       <c r="C58" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2508,15 +2793,20 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['rencananya', 'pada', 'tahun', 'mendatang', 'asperindo', 'akan', 'menyelenggarakan', 'musyawarah', 'nasional', 'dengan', 'mengundang', 'presi']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>['rencananya', 'asperindo', 'menyelenggarakan', 'musyawarah', 'nasional', 'mengundang', 'presi']</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>['rencana', 'asperindo', 'selenggara', 'musyawarah', 'nasional', 'undang', 'pres']</t>
         </is>
@@ -2527,10 +2817,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>22323</v>
+        <v>30700</v>
       </c>
       <c r="C59" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2544,15 +2834,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['menurut', 'saya', 'dengan', 'perkembangan', 'teknologi', 'yang', 'kian', 'modern', 'dan', 'ramah', 'lingkungan', 'ini', 'mobilitas', 'pengiriman', 'barang']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>['perkembangan', 'teknologi', 'kian', 'modern', 'ramah', 'lingkungan', 'mobilitas', 'pengiriman', 'barang']</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>['kembang', 'teknologi', 'kian', 'modern', 'ramah', 'lingkung', 'mobilitas', 'kirim', 'barang']</t>
         </is>
@@ -2563,10 +2858,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22324</v>
+        <v>30701</v>
       </c>
       <c r="C60" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2580,15 +2875,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['penerapan', 'ecommerce', 'akan', 'meningkatkan', 'industri', 'ekspor', 'dan', 'semua', 'industri', 'membutuhkan', 'ecommerce', 'maraknya', 'ekspor']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['penerapan', 'ecommerce', 'meningkatkan', 'industri', 'ekspor', 'industri', 'membutuhkan', 'ecommerce', 'maraknya', 'ekspor']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>['terap', 'ecommerce', 'tingkat', 'industri', 'ekspor', 'industri', 'butuh', 'ecommerce', 'marak', 'ekspor']</t>
         </is>
@@ -2599,10 +2899,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22325</v>
+        <v>30702</v>
       </c>
       <c r="C61" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2616,17 +2916,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['dalam', 'kesempatan', 'ini', 'asperindo', 'ya', 'fokus', 'pada', 'jasa', 'logistik', 'terutama', 'ecommerce', 'menyampaikan', 'bahwa', 'asperindo', 'ikut']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['kesempatan', 'asperindo', 'yh', 'fokus', 'jasa', 'logistik', 'ecommerce', 'asperindo']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['sempat', 'asperindo', 'yh', 'fokus', 'jasa', 'logistik', 'ecommerce', 'asperindo']</t>
+          <t>['kesempatan', 'asperindo', 'fokus', 'jasa', 'logistik', 'ecommerce', 'asperindo']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['sempat', 'asperindo', 'fokus', 'jasa', 'logistik', 'ecommerce', 'asperindo']</t>
         </is>
       </c>
     </row>
@@ -2635,10 +2940,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22326</v>
+        <v>30703</v>
       </c>
       <c r="C62" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2652,15 +2957,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'alhamdulillah', 'pada', 'hari', 'jumat', 'taggal', 'oktober', 'saya', 'berkesempat']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'alhamdulillah', 'jumat', 'taggal', 'oktober', 'berkesempat']</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'alhamdulillah', 'jumat', 'taggal', 'oktober', 'sempat']</t>
         </is>
@@ -2671,10 +2981,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22327</v>
+        <v>30704</v>
       </c>
       <c r="C63" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2688,17 +2998,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['semoga', 'selalu', 'menjadi', 'kebanggaan', 'rakyat', 'indonesia', 'dalam', 'menjaga', 'baris', 'terdepan', 'keamanan', 'republik', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['semoga', 'kebanggan', 'rakyat', 'indonesia', 'menjaga', 'baris', 'terdepan', 'keamanan', 'republik', 'indonesia']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['moga', 'banggan', 'rakyat', 'indonesia', 'jaga', 'baris', 'depan', 'aman', 'republik', 'indonesia']</t>
+          <t>['semoga', 'kebanggaan', 'rakyat', 'indonesia', 'menjaga', 'baris', 'terdepan', 'keamanan', 'republik', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['moga', 'bangga', 'rakyat', 'indonesia', 'jaga', 'baris', 'depan', 'aman', 'republik', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2707,10 +3022,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>22328</v>
+        <v>30705</v>
       </c>
       <c r="C64" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2724,17 +3039,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['atas', 'dukungan', 'dari', 'rakyat', 'para', 'tentara, nasional, indonesia', 'akan', 'jauh', 'lebih', 'hebat', 'dan', 'atas', 'kepercayaan', 'rakyatpun', 'tentara, nasional, indonesia', 'siap', 'untuk', 'mewujudkan']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>['dukungan', 'rakyat', 'tni', 'hebat', 'kepercayaan', 'rakyatpun', 'tni', 'mewujudkan']</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['dukung', 'rakyat', 'tni', 'hebat', 'percaya', 'rakyat', 'tni', 'wujud']</t>
+          <t>['dukungan', 'rakyat', 'tentara, nasional, indonesia', 'hebat', 'kepercayaan', 'rakyatpun', 'tentara, nasional, indonesia', 'mewujudkan']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['dukung', 'rakyat', 'tentara nasional indonesia', 'hebat', 'percaya', 'rakyat', 'tentara nasional indonesia', 'wujud']</t>
         </is>
       </c>
     </row>
@@ -2743,10 +3063,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>22329</v>
+        <v>30706</v>
       </c>
       <c r="C65" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2760,17 +3080,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'rakyat', 'adalah', 'ibu', 'kandung', 'tentara, nasional, indonesia', 'maka', 'tentara, nasional, indonesia', 'harus', 'berjuang', 'bersama', 'rakyat']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'rakyat', 'kandung', 'tni', 'tni', 'berjuang', 'rakyat']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'rakyat', 'kandung', 'tni', 'tni', 'juang', 'rakyat']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'rakyat', 'kandung', 'tentara, nasional, indonesia', 'tentara, nasional, indonesia', 'berjuang', 'rakyat']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'rakyat', 'kandung', 'tentara nasional indonesia', 'tentara nasional indonesia', 'juang', 'rakyat']</t>
         </is>
       </c>
     </row>
@@ -2779,10 +3104,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>22330</v>
+        <v>30707</v>
       </c>
       <c r="C66" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2796,17 +3121,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['mari', 'kita', 'selalu', 'mensyukuri', 'nikmat', 'yang', 'telah', 'diberikan', 'oleh', 'allah', 'subhanahu, wa, taala', 'semoga', 'kita', 'termasuk', 'dalam', 'orangorang', 'yang']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['mari', 'mensyukuri', 'nikmat', 'allah', 'swt', 'semoga', 'orangorang']</t>
-        </is>
-      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['mari', 'syukur', 'nikmat', 'allah', 'swt', 'moga', 'orangorang']</t>
+          <t>['mari', 'mensyukuri', 'nikmat', 'allah', 'subhanahu, wa, taala', 'semoga', 'orangorang']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['mari', 'syukur', 'nikmat', 'allah', 'subhanahu wa taala', 'moga', 'orangorang']</t>
         </is>
       </c>
     </row>
@@ -2815,10 +3145,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>22331</v>
+        <v>30708</v>
       </c>
       <c r="C67" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2832,17 +3162,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['seharusnya', 'kita', 'bersyukur', 'karena', 'allah', 'subhanahu, wa, taala', 'masih', 'memberikan', 'kita', 'kesempatan', 'untuk', 'bekerja', 'belajar', 'dan', 'melakukan']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['bersyukur', 'allah', 'swt', 'kesempatan', 'belajar']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['syukur', 'allah', 'swt', 'sempat', 'ajar']</t>
+          <t>['bersyukur', 'allah', 'subhanahu, wa, taala', 'kesempatan', 'belajar']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['syukur', 'allah', 'subhanahu wa taala', 'sempat', 'ajar']</t>
         </is>
       </c>
     </row>
@@ -2851,10 +3186,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>22332</v>
+        <v>30709</v>
       </c>
       <c r="C68" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2868,15 +3203,20 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sebagai', 'manusia', 'yang', 'kadang', 'dipenuhi', 'rasa', 'cemas', 'khawatir', 'dan', 'dihadap']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'manusia', 'kadang', 'dipenuhi', 'cemas', 'khawatir', 'dihadap']</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'manusia', 'kadang', 'penuh', 'cemas', 'khawatir', 'hadap']</t>
         </is>
@@ -2887,10 +3227,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>22333</v>
+        <v>30710</v>
       </c>
       <c r="C69" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2904,15 +3244,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['jadi', 'sudah', 'seharusnya', 'kita', 'bangga', 'akan', 'adanya', 'batik', 'di', 'keseharian', 'kita', 'semoga', 'kita', 'senantiasa', 'mampu', 'menjaga', 'dan', 'ba']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>['bangga', 'batik', 'keseharian', 'semoga', 'senantiasa', 'menjaga', 'ba']</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>['bangga', 'batik', 'hari', 'moga', 'senantiasa', 'jaga', 'ba']</t>
         </is>
@@ -2923,10 +3268,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>22334</v>
+        <v>30711</v>
       </c>
       <c r="C70" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2940,15 +3285,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'batik', 'adalah', 'kain', 'bergambar', 'yang', 'pembuatannya', 'diproses', 'dengan', 'cara', 'ter']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'batik', 'kain', 'bergambar', 'pembuatannya', 'diproses', 'ter']</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'batik', 'kain', 'gambar', 'buat', 'proses', 'ter']</t>
         </is>
@@ -2959,10 +3309,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>22335</v>
+        <v>30712</v>
       </c>
       <c r="C71" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2976,15 +3326,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['sesungguhnya', 'alquran', 'membawa', 'syafaat', 'kepada', 'orang', 'yang', 'rajin', 'membacanya', 'semoga', 'kita', 'selalu', 'dapat', 'beristiqomah']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['sesungguhnya', 'alquran', 'membawa', 'syafaat', 'orang', 'rajin', 'membacanya', 'semoga', 'beristiqomah']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['sungguh', 'alquran', 'bawa', 'syafaat', 'orang', 'rajin', 'baca', 'moga', 'beristiqomah']</t>
         </is>
@@ -2995,10 +3350,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>22336</v>
+        <v>30713</v>
       </c>
       <c r="C72" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3012,15 +3367,20 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'membaca', 'alquran', 'sehari', 'satu', 'kali', 'meskipun', 'hanya', 'ayat', 'namun', 'pahala']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'membaca', 'alquran', 'sehari', 'kali', 'ayat', 'pahala']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'baca', 'alquran', 'hari', 'kali', 'ayat', 'pahala']</t>
         </is>
@@ -3031,10 +3391,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>22337</v>
+        <v>30714</v>
       </c>
       <c r="C73" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3048,15 +3408,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['pesan', 'saya', 'untuk', 'anak', 'muda', 'dan', 'seluruh', 'staf', 'yang', 'bekerja', 'di', 'kp', 'adalah', 'untuk', 'mendekat', 'menjembatani', 'dan', 'menyambungk']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['pesan', 'anak', 'muda', 'staf', 'kp', 'mendekat', 'menjembatani', 'menyambungk']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['pesan', 'anak', 'muda', 'staf', 'kp', 'dekat', 'jembatan', 'menyambungk']</t>
         </is>
@@ -3067,10 +3432,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>22338</v>
+        <v>30715</v>
       </c>
       <c r="C74" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3084,15 +3449,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['masyarakat', 'menaruh', 'harapan', 'besar', 'pada', 'kantor', 'staf', 'presiden', 'ksp', 'anakanak', 'muda', 'dan', 'seluruh', 'staf', 'yang', 'bekerja', 'di']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>['masyarakat', 'menaruh', 'harapan', 'kantor', 'staf', 'presiden', 'ksp', 'anakanak', 'muda', 'staf']</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>['masyarakat', 'taruh', 'harap', 'kantor', 'staf', 'presiden', 'ksp', 'anakanak', 'muda', 'staf']</t>
         </is>
@@ -3103,10 +3473,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>22339</v>
+        <v>30716</v>
       </c>
       <c r="C75" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3120,15 +3490,20 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['mereka', 'benarbenar', 'bekerja', 'dengan', 'hati', 'dan', 'membangun', 'semangat', 'yang', 'begitu', 'kuat', 'banyak', 'yang', 'tidak', 'tahu', 'anakanak']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>['benarbenar', 'hati', 'membangun', 'semangat', 'kuat', 'anakanak']</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>['benarbenar', 'hati', 'bangun', 'semangat', 'kuat', 'anakanak']</t>
         </is>
@@ -3139,10 +3514,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22340</v>
+        <v>30717</v>
       </c>
       <c r="C76" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3156,15 +3531,20 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['seperti', 'liputan', 'ke', 'perbatasan', 'mempersiapkan', 'presentasi', 'kepada', 'bapak', 'presiden', 'jokowi', 'dalam', 'hitungan', 'jam', 'berpetuala']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>['liputan', 'perbatasan', 'presentasi', 'presiden', 'jokowi', 'hitungan', 'jam', 'berpetuala']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>['liput', 'batas', 'presentasi', 'presiden', 'jokowi', 'hitung', 'jam', 'tuala']</t>
         </is>
@@ -3175,10 +3555,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22341</v>
+        <v>30718</v>
       </c>
       <c r="C77" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3192,15 +3572,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['buku', 'ini', 'menceritakan', 'karya', 'anak', 'muda', 'berusia', 'di', 'bawah', 'tahun', 'yang', 'bekerja', 'di', 'ksp', 'dan', 'melakukan', 'berbagai', 'hal', 'lua']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>['buku', 'menceritakan', 'karya', 'anak', 'muda', 'berusia', 'ksp', 'lua']</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>['buku', 'cerita', 'karya', 'anak', 'muda', 'usia', 'ksp', 'lua']</t>
         </is>
@@ -3211,10 +3596,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22342</v>
+        <v>30719</v>
       </c>
       <c r="C78" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3228,15 +3613,20 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'alhamdulillah', 'pada', 'anak', 'muda', 'ada', 'masa', 'depan', 'indonesia', 'saya', 'hadir']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'alhamdulillah', 'anak', 'muda', 'indonesia', 'hadir']</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'alhamdulillah', 'anak', 'muda', 'indonesia', 'hadir']</t>
         </is>
@@ -3247,10 +3637,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>22343</v>
+        <v>30720</v>
       </c>
       <c r="C79" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3264,17 +3654,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['sekali', 'lagi', 'mohon', 'maaf', 'dan', 'mohon', 'doanya', 'agar', 'karhutla', 'segera', 'terselesaikan', 'amin', 'ya', 'rabi', 'al', 'amin']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['mohon', 'maaf', 'mohon', 'doanya', 'karhutla', 'terselesaikan', 'aamiin', 'rabbal', 'al', 'aamiin']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['mohon', 'maaf', 'mohon', 'doa', 'karhutla', 'selesai', 'aamiin', 'rabbal', 'al', 'aamiin']</t>
+          <t>['mohon', 'maaf', 'mohon', 'doanya', 'karhutla', 'terselesaikan', 'amin', 'rabi', 'al', 'amin']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['mohon', 'maaf', 'mohon', 'doa', 'karhutla', 'selesai', 'amin', 'rabi', 'al', 'amin']</t>
         </is>
       </c>
     </row>
@@ -3283,10 +3678,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>22344</v>
+        <v>30721</v>
       </c>
       <c r="C80" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3300,15 +3695,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['menyegel', 'perusahaan', 'yang', 'diduga', 'melakukan', 'pembakaran', 'hutan', 'melalui', 'kementerian', 'lingkungan', 'hidup', 'dan', 'kehutanan', 'repub']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['menyegel', 'perusahaan', 'diduga', 'pembakaran', 'hutan', 'kementerian', 'lingkungan', 'hidup', 'kehutanan', 'repub']</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>['segel', 'usaha', 'duga', 'bakar', 'hutan', 'menteri', 'lingkung', 'hidup', 'hutan', 'repub']</t>
         </is>
@@ -3319,10 +3719,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>22345</v>
+        <v>30722</v>
       </c>
       <c r="C81" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3336,15 +3736,20 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['sebelumnya', 'bapak', 'presiden', 'jokowi', 'telah', 'melakukan', 'beberapa', 'upaya', 'seperti', 'membuat', 'hujan', 'buatan', 'dengan', 'mengirimkan', 'pe']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>['presiden', 'jokowi', 'upaya', 'hujan', 'buatan', 'mengirimkan', 'pe']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>['presiden', 'jokowi', 'upaya', 'hujan', 'buat', 'kirim', 'pe']</t>
         </is>
@@ -3355,10 +3760,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>22346</v>
+        <v>30723</v>
       </c>
       <c r="C82" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3372,15 +3777,20 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['pemerintah', 'terus', 'berusaha', 'untuk', 'sesegera', 'mungkin', 'menyelesaikan', 'permasalahan', 'ini', 'bahkan', 'hari', 'ini', 'bapak', 'presiden', 'jok']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>['pemerintah', 'berusaha', 'menyelesaikan', 'permasalahan', 'presiden', 'jok']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>['perintah', 'usaha', 'selesai', 'masalah', 'presiden', 'jok']</t>
         </is>
@@ -3391,10 +3801,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22347</v>
+        <v>30724</v>
       </c>
       <c r="C83" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3408,15 +3818,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['setiap', 'hari', 'jumat', 'memang', 'saya', 'sengaja', 'membagikan', 'hadis', 'atau', 'ayat', 'alquran', 'untuk', 'saling', 'mengingatkan', 'tentunya', 'buka']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>['jumat', 'sengaja', 'membagikan', 'hadis', 'ayat', 'alquran', 'buka']</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>['jumat', 'sengaja', 'bagi', 'hadis', 'ayat', 'alquran', 'buka']</t>
         </is>
@@ -3427,10 +3842,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>22348</v>
+        <v>30725</v>
       </c>
       <c r="C84" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3444,15 +3859,20 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'banyaknya', 'laporan', 'masuk', 'mengenai', 'hadis', 'atau', 'ayat', 'alquran', 'pada']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'banyaknya', 'laporan', 'masuk', 'hadis', 'ayat', 'alquran']</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'banyak', 'lapor', 'masuk', 'hadis', 'ayat', 'alquran']</t>
         </is>
@@ -3463,10 +3883,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>22349</v>
+        <v>30726</v>
       </c>
       <c r="C85" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3480,17 +3900,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['al', 'fatihah', 'untuk', 'seluruh', 'saudara', 'saudara', 'yang', 'terkena', 'musibah', 'di, sana', 'semoga', 'selalu', 'diberi', 'ketabahan', 'dan', 'keselamata']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['al', 'fatihah', 'saudara', 'saudara', 'terkena', 'musibah', 'disana', 'semoga', 'ketabahan', 'keselamata']</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['al', 'fatihah', 'saudara', 'saudara', 'kena', 'musibah', 'sana', 'moga', 'tabah', 'keselamata']</t>
+          <t>['al', 'fatihah', 'saudara', 'saudara', 'terkena', 'musibah', 'di, sana', 'semoga', 'ketabahan', 'keselamata']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['al', 'fatihah', 'saudara', 'saudara', 'kena', 'musibah', 'di sana', 'moga', 'tabah', 'keselamata']</t>
         </is>
       </c>
     </row>
@@ -3499,10 +3924,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>22350</v>
+        <v>30727</v>
       </c>
       <c r="C86" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3516,17 +3941,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'segala', 'musibah', 'datangnya', 'dari', 'allah', 'subhanahu, wa, taala', 'dan', 'diperuntukkan', 'untuk', 'hamban']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'musibah', 'datangnya', 'allah', 'swt', 'diperuntukkan', 'hamban']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'musibah', 'datang', 'allah', 'swt', 'untuk', 'hamban']</t>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'musibah', 'datangnya', 'allah', 'subhanahu, wa, taala', 'diperuntukkan', 'hamban']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'musibah', 'datang', 'allah', 'subhanahu wa taala', 'untuk', 'hamban']</t>
         </is>
       </c>
     </row>
@@ -3535,10 +3965,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>22351</v>
+        <v>30728</v>
       </c>
       <c r="C87" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3552,17 +3982,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['juga', 'kepada', 'keluarga', 'yang', 'ditinggalkan', 'semoga', 'selalu', 'diberi', 'ketabahan', 'dan', 'keikhlasan', 'amin', 'ya', 'rabi', 'alaamiin']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['keluarga', 'ditinggalkan', 'semoga', 'ketabahan', 'keikhlasan', 'aamiin', 'rabbal', 'alaamiin']</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['keluarga', 'tinggal', 'moga', 'tabah', 'ikhlas', 'aamiin', 'rabbal', 'alaamiin']</t>
+          <t>['keluarga', 'ditinggalkan', 'semoga', 'ketabahan', 'keikhlasan', 'amin', 'rabi', 'alaamiin']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['keluarga', 'tinggal', 'moga', 'tabah', 'ikhlas', 'amin', 'rabi', 'alaamiin']</t>
         </is>
       </c>
     </row>
@@ -3571,10 +4006,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22352</v>
+        <v>30729</v>
       </c>
       <c r="C88" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3588,17 +4023,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'saya', 'dan', 'keluarga', 'turut', 'berdukacita', 'atas', 'wafatnya', 'bapak', 'bacharudiin', 'jusuf', 'apa']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'berdukacita', 'wafatnya', 'bacharudiin', 'jusuf', 'ha']</t>
-        </is>
-      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'dukacita', 'wafat', 'bacharudiin', 'jusuf', 'ha']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'berdukacita', 'wafatnya', 'bacharudiin', 'jusuf']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'dukacita', 'wafat', 'bacharudiin', 'jusuf']</t>
         </is>
       </c>
     </row>
@@ -3607,10 +4047,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>22353</v>
+        <v>30730</v>
       </c>
       <c r="C89" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3624,17 +4064,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['semoga', 'kita', 'semua', 'senantiasa', 'dimurahkan', 'rezekinya', 'oleh', 'allah', 'subhanahu, wa, taala', 'sehingga', 'mampu', 'memberi', 'kepada', 'sesama', 'di', 'sekitar', 'ki']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['semoga', 'senantiasa', 'dimurahkan', 'rezekinya', 'allah', 'swt', 'ki']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['moga', 'senantiasa', 'murah', 'rezeki', 'allah', 'swt', 'ki']</t>
+          <t>['semoga', 'senantiasa', 'dimurahkan', 'rezekinya', 'allah', 'subhanahu, wa, taala', 'ki']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['moga', 'senantiasa', 'murah', 'rezeki', 'allah', 'subhanahu wa taala', 'ki']</t>
         </is>
       </c>
     </row>
@@ -3643,10 +4088,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>22354</v>
+        <v>30731</v>
       </c>
       <c r="C90" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3660,17 +4105,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['sedekahpun', 'tak', 'akan', 'membuat', 'kita', 'miskin', 'justru', 'akan', 'semakin', 'kayak', 'itulah', 'janji', 'allah', 'subhanahu, wa, taala', 'dalam', 'alquran', 'selain', 'me']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['sedekahpun', 'miskin', 'kaya', 'janji', 'allah', 'swt', 'alquran', 'me']</t>
-        </is>
-      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['sedekah', 'miskin', 'kaya', 'janji', 'allah', 'swt', 'alquran', 'me']</t>
+          <t>['sedekahpun', 'miskin', 'kayak', 'janji', 'allah', 'subhanahu, wa, taala', 'alquran', 'me']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['sedekah', 'miskin', 'kayak', 'janji', 'allah', 'subhanahu wa taala', 'alquran', 'me']</t>
         </is>
       </c>
     </row>
@@ -3679,10 +4129,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>22355</v>
+        <v>30732</v>
       </c>
       <c r="C91" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3696,15 +4146,20 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sebanyak', 'apapun', 'rezeki', 'kita', 'jangan', 'pernah', 'lupa', 'untuk', 'menyedekahkan', 'se']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'apapun', 'rezeki', 'lupa', 'menyedekahkan']</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'apa', 'rezeki', 'lupa', 'sedekah']</t>
         </is>
@@ -3715,10 +4170,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>22356</v>
+        <v>30733</v>
       </c>
       <c r="C92" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3732,17 +4187,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['semoga', 'segala', 'amal', 'ibadah', 'beliau', 'senantiasa', 'diterima', 'di', 'sisi', 'allah', 'subhanahu, wa, taala', 'dan', 'terhitung', 'sebagai', 'pahala', 'serta', 'kepada']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['semoga', 'amal', 'ibadah', 'beliau', 'senantiasa', 'diterima', 'sisi', 'allah', 'swt', 'terhitung', 'pahala']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['moga', 'amal', 'ibadah', 'beliau', 'senantiasa', 'terima', 'sisi', 'allah', 'swt', 'hitung', 'pahala']</t>
+          <t>['semoga', 'amal', 'ibadah', 'beliau', 'senantiasa', 'diterima', 'sisi', 'allah', 'subhanahu, wa, taala', 'terhitung', 'pahala']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['moga', 'amal', 'ibadah', 'beliau', 'senantiasa', 'terima', 'sisi', 'allah', 'subhanahu wa taala', 'hitung', 'pahala']</t>
         </is>
       </c>
     </row>
@@ -3751,10 +4211,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>22357</v>
+        <v>30734</v>
       </c>
       <c r="C93" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3768,15 +4228,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'saya', 'dan', 'keluarga', 'turut', 'berdukacita', 'atas', 'wafatnya', 'ibu', 'hj', 'siti', 'habibah', 'binti']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'berdukacita', 'wafatnya', 'hj', 'siti', 'habibah', 'binti']</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'keluarga', 'dukacita', 'wafat', 'hj', 'siti', 'habibah', 'binti']</t>
         </is>
@@ -3787,10 +4252,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>22358</v>
+        <v>30735</v>
       </c>
       <c r="C94" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3804,17 +4269,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['semoga', 'kita', 'semua', 'termasuk', 'orang', 'kayak', 'yang', 'selalu', 'pandai', 'bersyukur', 'amin', 'ya', 'rabi', 'alaamiin']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['semoga', 'orang', 'kaya', 'pandai', 'bersyukur', 'aamiin', 'rabbal', 'alaamiin']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['moga', 'orang', 'kaya', 'pandai', 'syukur', 'aamiin', 'rabbal', 'alaamiin']</t>
+          <t>['semoga', 'orang', 'kayak', 'pandai', 'bersyukur', 'amin', 'rabi', 'alaamiin']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['moga', 'orang', 'kayak', 'pandai', 'syukur', 'amin', 'rabi', 'alaamiin']</t>
         </is>
       </c>
     </row>
@@ -3823,10 +4293,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>22359</v>
+        <v>30736</v>
       </c>
       <c r="C95" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3840,15 +4310,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['bisa', 'jadi', 'yang', 'kita', 'miliki', 'tersebut', 'merupakan', 'pengharapan', 'besar', 'dari', 'orang', 'lain', 'itulah', 'sebabnya', 'kita', 'harus', 'selal']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['miliki', 'pengharapan', 'orang', 'selal']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['milik', 'harap', 'orang', 'selal']</t>
         </is>
@@ -3859,10 +4334,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>22360</v>
+        <v>30737</v>
       </c>
       <c r="C96" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3876,15 +4351,20 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sekayakayanya', 'manusia', 'adalah', 'yang', 'pandai', 'bersyukur', 'apapun', 'yang', 'kita']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sekayakayanya', 'manusia', 'pandai', 'bersyukur', 'apapun']</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'sekayakayanya', 'manusia', 'pandai', 'syukur', 'apa']</t>
         </is>
@@ -3895,10 +4375,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>22361</v>
+        <v>30738</v>
       </c>
       <c r="C97" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3912,17 +4392,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['rt', 'kepala', 'staf', 'kepresidenan', 'moeldoko', 'di', 'prime', 'talk', 'televisi', 'memahami', 'maksud', 'pidato', 'presiden', 'manusia', 'unggul', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['kepala', 'staf', 'kepresidenan', 'moeldoko', 'prime', 'talk', 'tv', 'memahami', 'maksud', 'pidato', 'presiden', 'manusia', 'unggul', 'indonesi']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['kepala', 'staf', 'presiden', 'moeldoko', 'prime', 'talk', 'tv', 'paham', 'maksud', 'pidato', 'presiden', 'manusia', 'unggul', 'indonesi']</t>
+          <t>['kepala', 'staf', 'kepresidenan', 'moeldoko', 'prime', 'talk', 'televisi', 'memahami', 'maksud', 'pidato', 'presiden', 'manusia', 'unggul', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['kepala', 'staf', 'presiden', 'moeldoko', 'prime', 'talk', 'televisi', 'paham', 'maksud', 'pidato', 'presiden', 'manusia', 'unggul', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -3931,10 +4416,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>22362</v>
+        <v>30739</v>
       </c>
       <c r="C98" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3948,15 +4433,20 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['terima', 'kasih', 'kami', 'ucapkan', 'untuk', 'jasajasa', 'pahlawan', 'yang', 'sudah', 'berjuang', 'demi', 'memerdekakan', 'indonesia', 'tercinta', 'semoga']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'ucapkan', 'jasajasa', 'pahlawan', 'berjuang', 'memerdekakan', 'indonesia', 'tercinta', 'semoga']</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'ucap', 'jasajasa', 'pahlawan', 'juang', 'merdeka', 'indonesia', 'cinta', 'moga']</t>
         </is>
@@ -3967,10 +4457,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>22363</v>
+        <v>30740</v>
       </c>
       <c r="C99" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3984,15 +4474,20 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'alhamdulillah', 'indonesia', 'negeri', 'kita', 'tercinta', 'sudah', 'memasuki', 'tahun', 'ke']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'alhamdulillah', 'indonesia', 'negeri', 'tercinta', 'memasuki']</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>['assalamualaikum', 'warahmatullahi', 'wabarakatuh', 'alhamdulillah', 'indonesia', 'negeri', 'cinta', 'pasuk']</t>
         </is>
@@ -4003,10 +4498,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>22364</v>
+        <v>30741</v>
       </c>
       <c r="C100" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4020,15 +4515,20 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['saat', 'ini', 'indonesia', 'sedang', 'membangun', 'manajemen', 'talenta', 'nasional', 'yang', 'nantinya', 'pemerintah', 'akan', 'mendata', 'anakanak', 'indone']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>['indonesia', 'membangun', 'manajemen', 'talenta', 'nasional', 'pemerintah', 'mendata', 'anakanak', 'indone']</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>['indonesia', 'bangun', 'manajemen', 'talenta', 'nasional', 'perintah', 'data', 'anakanak', 'indone']</t>
         </is>
@@ -4039,10 +4539,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>22365</v>
+        <v>30742</v>
       </c>
       <c r="C101" t="n">
-        <v>270</v>
+        <v>357</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4056,15 +4556,20 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['kalau', 'di', 'sisi', 'politik', 'ada', 'pergeseran', 'makna', 'dari', 'geopolitik', 'yaitu', 'budaya', 'ketakutan', 'yang', 'muncul', 'di', 'amerika', 'eropa']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>['sisi', 'politik', 'pergeseran', 'makna', 'geopolitik', 'budaya', 'ketakutan', 'muncul', 'amerika', 'eropa']</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>['sisi', 'politik', 'geser', 'makna', 'geopolitik', 'budaya', 'takut', 'muncul', 'amerika', 'eropa']</t>
         </is>
